--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.6359214972305556</v>
+        <v>3.6359215240423683</v>
       </c>
       <c r="C2">
-        <v>11.499300221350904</v>
+        <v>11.499300192448931</v>
       </c>
       <c r="D2">
-        <v>22.906172061166501</v>
+        <v>22.906171974881005</v>
       </c>
       <c r="E2">
-        <v>32.357928935353762</v>
+        <v>32.357928897890389</v>
       </c>
       <c r="F2">
-        <v>12.674789648369888</v>
+        <v>12.674789618277401</v>
       </c>
       <c r="G2">
-        <v>2.6869028646852042</v>
+        <v>2.6869028500933156</v>
       </c>
       <c r="H2">
-        <v>10.649518704485013</v>
+        <v>10.649518658164109</v>
       </c>
       <c r="I2">
-        <v>15.33521441437577</v>
+        <v>15.335214413188018</v>
       </c>
       <c r="J2">
-        <v>21.861524470388506</v>
+        <v>21.861524394927041</v>
       </c>
       <c r="K2">
-        <v>6.9048331782436678</v>
+        <v>6.9048331564219243</v>
       </c>
       <c r="L2">
-        <v>6.7373854707041509</v>
+        <v>6.7373854245361482</v>
       </c>
       <c r="M2">
-        <v>-9.3015198077266508</v>
+        <v>-9.3015198032294002</v>
       </c>
       <c r="N2">
-        <v>17.084034135407347</v>
+        <v>17.08403411470783</v>
       </c>
       <c r="O2">
-        <v>16.657488498817699</v>
+        <v>16.657488428157816</v>
       </c>
       <c r="P2">
-        <v>20.555829121879658</v>
+        <v>20.555829134693855</v>
       </c>
       <c r="Q2">
-        <v>-0.57472777628784133</v>
+        <v>-0.57472780600279449</v>
       </c>
       <c r="R2">
-        <v>-8.8770338916355875</v>
+        <v>-8.8770339292687108</v>
       </c>
       <c r="S2">
-        <v>27.747573395751481</v>
+        <v>27.747573399652005</v>
       </c>
       <c r="T2">
-        <v>32.504930926334872</v>
+        <v>32.504930964920568</v>
       </c>
       <c r="U2">
-        <v>-2.1210965134510493</v>
+        <v>-2.1210965491962814</v>
       </c>
       <c r="V2">
-        <v>10.207684369249003</v>
+        <v>10.207684346517899</v>
       </c>
       <c r="W2">
-        <v>-10.50699652090548</v>
+        <v>-10.506996592400764</v>
       </c>
       <c r="X2">
-        <v>0.73465194051990368</v>
+        <v>0.73465190586761608</v>
       </c>
       <c r="Y2">
-        <v>28.006456837214849</v>
+        <v>28.00645678959458</v>
       </c>
       <c r="Z2">
-        <v>14.387954352153443</v>
+        <v>14.387954323761562</v>
       </c>
       <c r="AA2">
-        <v>32.668121369757195</v>
+        <v>32.6681211325999</v>
       </c>
       <c r="AB2">
-        <v>23.938130183453733</v>
+        <v>23.938130103700772</v>
       </c>
       <c r="AC2">
-        <v>1.3189436222473114</v>
+        <v>1.318943553425906</v>
       </c>
       <c r="AD2">
-        <v>39.208268987924413</v>
+        <v>39.208268887424936</v>
       </c>
       <c r="AE2">
-        <v>11.909130546710662</v>
+        <v>11.909130535205078</v>
       </c>
       <c r="AF2">
-        <v>17.759739802029948</v>
+        <v>17.759739746474967</v>
       </c>
       <c r="AG2">
-        <v>23.940951071479336</v>
+        <v>23.940950923427163</v>
       </c>
       <c r="AH2">
-        <v>22.262786942988026</v>
+        <v>22.262786893190725</v>
       </c>
       <c r="AI2">
-        <v>27.895067404458647</v>
+        <v>27.895067294099846</v>
       </c>
       <c r="AJ2">
-        <v>17.73179165101897</v>
+        <v>17.731791566406546</v>
       </c>
       <c r="AK2">
-        <v>25.199115349216285</v>
+        <v>25.199115302942744</v>
       </c>
       <c r="AL2">
-        <v>-4.7203561164764123</v>
+        <v>-4.720356160331348</v>
       </c>
       <c r="AM2">
-        <v>21.379660491630645</v>
+        <v>21.379660433761398</v>
       </c>
       <c r="AN2">
-        <v>24.623829303079457</v>
+        <v>24.623829250749058</v>
       </c>
       <c r="AO2">
-        <v>36.785680531591403</v>
+        <v>36.78568040841796</v>
       </c>
       <c r="AP2">
-        <v>23.249645647168059</v>
+        <v>23.249645596550071</v>
       </c>
       <c r="AQ2">
-        <v>-6.2868299636720248</v>
+        <v>-6.2868300483710104</v>
       </c>
       <c r="AR2">
-        <v>30.536441729506876</v>
+        <v>30.536441711673152</v>
       </c>
       <c r="AS2">
-        <v>38.431965650892238</v>
+        <v>38.431965503726374</v>
       </c>
       <c r="AT2">
-        <v>10.508555892701457</v>
+        <v>10.508555849975066</v>
       </c>
       <c r="AU2">
-        <v>22.101059194845927</v>
+        <v>22.101059186983964</v>
       </c>
       <c r="AV2">
-        <v>18.028928107839288</v>
+        <v>18.028927900988016</v>
       </c>
       <c r="AW2">
-        <v>8.3385837710262543</v>
+        <v>8.3385837399212388</v>
       </c>
       <c r="AX2">
-        <v>28.773199602419048</v>
+        <v>28.773199539646722</v>
       </c>
       <c r="AY2">
-        <v>35.364102244358243</v>
+        <v>35.364102191721628</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.330235727835621</v>
+        <v>11.330235689933694</v>
       </c>
       <c r="C3">
-        <v>11.09803167428699</v>
+        <v>11.098031640037533</v>
       </c>
       <c r="D3">
-        <v>25.428526716086402</v>
+        <v>25.428526661132718</v>
       </c>
       <c r="E3">
-        <v>24.622697134812853</v>
+        <v>24.622697135014636</v>
       </c>
       <c r="F3">
-        <v>11.444583220181432</v>
+        <v>11.444583152543986</v>
       </c>
       <c r="G3">
-        <v>20.512524684469867</v>
+        <v>20.512524651249596</v>
       </c>
       <c r="H3">
-        <v>-5.8759773475285844</v>
+        <v>-5.8759773755041023</v>
       </c>
       <c r="I3">
-        <v>4.4021805342698821</v>
+        <v>4.402180515172283</v>
       </c>
       <c r="J3">
-        <v>24.43089233884627</v>
+        <v>24.430892272061065</v>
       </c>
       <c r="K3">
-        <v>47.682785645607346</v>
+        <v>47.682785597865966</v>
       </c>
       <c r="L3">
-        <v>27.297134684315676</v>
+        <v>27.297134626669557</v>
       </c>
       <c r="M3">
-        <v>-0.50924037089702756</v>
+        <v>-0.50919149207924874</v>
       </c>
       <c r="N3">
-        <v>12.12662998005962</v>
+        <v>12.126629948255992</v>
       </c>
       <c r="O3">
-        <v>-22.334412776242381</v>
+        <v>-22.334412810540421</v>
       </c>
       <c r="P3">
-        <v>21.400659409677786</v>
+        <v>21.400659357197235</v>
       </c>
       <c r="Q3">
-        <v>8.4215467578327257</v>
+        <v>8.421546715335861</v>
       </c>
       <c r="R3">
-        <v>2.3310779913279931</v>
+        <v>2.331077913522916</v>
       </c>
       <c r="S3">
-        <v>22.905714501781908</v>
+        <v>22.905714493946491</v>
       </c>
       <c r="T3">
-        <v>30.606626672042903</v>
+        <v>30.606626636231439</v>
       </c>
       <c r="U3">
-        <v>11.890998661214363</v>
+        <v>11.890998647634845</v>
       </c>
       <c r="V3">
-        <v>16.891749763229253</v>
+        <v>16.891749732809981</v>
       </c>
       <c r="W3">
-        <v>-1.6954658580508115</v>
+        <v>-1.6954659316395275</v>
       </c>
       <c r="X3">
-        <v>-5.982314673895968</v>
+        <v>-5.9823147039946001</v>
       </c>
       <c r="Y3">
-        <v>31.89074874236147</v>
+        <v>31.890748685518183</v>
       </c>
       <c r="Z3">
-        <v>16.76799714433967</v>
+        <v>16.767997118417178</v>
       </c>
       <c r="AA3">
-        <v>33.03178101943832</v>
+        <v>33.031781031458912</v>
       </c>
       <c r="AB3">
-        <v>26.845698897552516</v>
+        <v>26.845698825967943</v>
       </c>
       <c r="AC3">
-        <v>35.957838666968065</v>
+        <v>35.957838663954142</v>
       </c>
       <c r="AD3">
-        <v>35.495870328056121</v>
+        <v>35.495870226372247</v>
       </c>
       <c r="AE3">
-        <v>28.749683692338024</v>
+        <v>28.749683655335623</v>
       </c>
       <c r="AF3">
-        <v>20.674660890560578</v>
+        <v>20.674660830919912</v>
       </c>
       <c r="AG3">
-        <v>13.49583928704747</v>
+        <v>13.4958392793567</v>
       </c>
       <c r="AH3">
-        <v>6.9745568394008739</v>
+        <v>6.9745567470157459</v>
       </c>
       <c r="AI3">
-        <v>64.741117722533573</v>
+        <v>64.741117550334721</v>
       </c>
       <c r="AJ3">
-        <v>43.45853721139737</v>
+        <v>43.458537150001227</v>
       </c>
       <c r="AK3">
-        <v>25.948244266968914</v>
+        <v>25.94824423511734</v>
       </c>
       <c r="AL3">
-        <v>14.877225813396262</v>
+        <v>14.877225775406963</v>
       </c>
       <c r="AM3">
-        <v>19.679804718905984</v>
+        <v>19.679804590674184</v>
       </c>
       <c r="AN3">
-        <v>-12.379317655291286</v>
+        <v>-12.379317719157088</v>
       </c>
       <c r="AO3">
-        <v>37.36542589673715</v>
+        <v>37.365425828743966</v>
       </c>
       <c r="AP3">
-        <v>4.8171684291858279</v>
+        <v>4.8171683556991116</v>
       </c>
       <c r="AQ3">
-        <v>19.942857360497058</v>
+        <v>19.942857294832152</v>
       </c>
       <c r="AR3">
-        <v>40.911831693394532</v>
+        <v>40.91183168267785</v>
       </c>
       <c r="AS3">
-        <v>31.112166544855125</v>
+        <v>31.112166402522973</v>
       </c>
       <c r="AT3">
-        <v>17.722141804931859</v>
+        <v>17.722141705489236</v>
       </c>
       <c r="AU3">
-        <v>15.09437349854964</v>
+        <v>15.094373438033573</v>
       </c>
       <c r="AV3">
-        <v>10.847090003954762</v>
+        <v>10.847089814207171</v>
       </c>
       <c r="AW3">
-        <v>8.584258345610456</v>
+        <v>8.5842582269639411</v>
       </c>
       <c r="AX3">
-        <v>17.746182442122763</v>
+        <v>17.74618234633563</v>
       </c>
       <c r="AY3">
-        <v>39.198632059305197</v>
+        <v>39.198632035041328</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>3.6359215240423683</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>11.499300192448931</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>22.906171974881005</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>32.357928897890389</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>12.674789618277401</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.6869028500933156</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.649518658164109</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.335214413188018</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>21.861524394927041</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.9048331564219243</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.7373854245361482</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-9.3015198032294002</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>17.08403411470783</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.657488428157816</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>20.555829134693855</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-0.57472780600279449</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-8.8770339292687108</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>27.747573399652005</v>
+        <v>16.982196483406035</v>
       </c>
       <c r="T2">
         <v>32.504930964920568</v>
@@ -588,55 +477,55 @@
         <v>14.387954323761562</v>
       </c>
       <c r="AA2">
-        <v>32.6681211325999</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>23.938130103700772</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.318943553425906</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>39.208268887424936</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>11.909130535205078</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>17.759739746474967</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>23.940950923427163</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>22.262786893190725</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>27.895067294099846</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>17.731791566406546</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>25.199115302942744</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-4.720356160331348</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>21.379660433761398</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>24.623829250749058</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>36.78568040841796</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>23.249645596550071</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-6.2868300483710104</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>30.536441711673152</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>11.330235689933694</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>11.098031640037533</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>25.428526661132718</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>24.622697135014636</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11.444583152543986</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>20.512524651249596</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-5.8759773755041023</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.402180515172283</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>24.430892272061065</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>47.682785597865966</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>27.297134626669557</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.50919149207924874</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.126629948255992</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-22.334412810540421</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>21.400659357197235</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>8.421546715335861</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2.331077913522916</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>22.905714493946491</v>
@@ -743,55 +629,55 @@
         <v>16.767997118417178</v>
       </c>
       <c r="AA3">
-        <v>33.031781031458912</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>26.845698825967943</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>35.957838663954142</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>35.495870226372247</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>28.749683655335623</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>20.674660830919912</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>13.4958392793567</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.9745567470157459</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>64.741117550334721</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>43.458537150001227</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>25.94824423511734</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.877225775406963</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>19.679804590674184</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-12.379317719157088</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>37.365425828743966</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.8171683556991116</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>19.942857294832152</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>40.91183168267785</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>3.6359214972305556</v>
-      </c>
       <c r="C2">
-        <v>7.7121104043766655</v>
-      </c>
-      <c r="D2">
-        <v>22.906172061166501</v>
+        <v>-8.8770339292687108</v>
       </c>
       <c r="E2">
-        <v>32.357928935353762</v>
+        <v>-6.2868300483710104</v>
       </c>
       <c r="F2">
         <v>12.674789648369888</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.330235727835621</v>
+        <v>-12.284955612774002</v>
       </c>
       <c r="C3">
-        <v>11.09803167428699</v>
+        <v>2.331077913522916</v>
       </c>
       <c r="D3">
-        <v>25.428526716086402</v>
+        <v>-10.224154572232669</v>
       </c>
       <c r="E3">
-        <v>24.622697134812853</v>
+        <v>21.125455078223855</v>
       </c>
       <c r="F3">
         <v>11.444583220181432</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.6359214972305556</v>
-      </c>
-      <c r="C2">
-        <v>7.7121104043766655</v>
+        <v>15.607610807449943</v>
       </c>
       <c r="D2">
-        <v>22.906172061166501</v>
-      </c>
-      <c r="E2">
-        <v>32.357928935353762</v>
+        <v>21.379660433761398</v>
       </c>
       <c r="F2">
         <v>12.674789648369888</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.330235727835621</v>
+        <v>12.126629948255992</v>
       </c>
       <c r="C3">
-        <v>11.09803167428699</v>
+        <v>-12.284955612774002</v>
       </c>
       <c r="D3">
-        <v>25.428526716086402</v>
+        <v>19.679804590674184</v>
       </c>
       <c r="E3">
-        <v>35.361647914257802</v>
+        <v>-10.224154572232669</v>
       </c>
       <c r="F3">
         <v>11.444583220181432</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>3.6359215240423683</v>
+      </c>
+      <c r="C2">
+        <v>7.7121103757163523</v>
+      </c>
+      <c r="D2">
+        <v>22.906171974881005</v>
+      </c>
+      <c r="E2">
+        <v>32.357928897890389</v>
+      </c>
+      <c r="F2">
+        <v>12.674789618277401</v>
+      </c>
+      <c r="G2">
+        <v>8.6332905049399287</v>
+      </c>
+      <c r="H2">
+        <v>10.649518658164109</v>
+      </c>
+      <c r="I2">
+        <v>22.41457885056068</v>
+      </c>
+      <c r="J2">
+        <v>21.861524394927041</v>
+      </c>
+      <c r="K2">
+        <v>6.9048331564219243</v>
+      </c>
+      <c r="L2">
+        <v>8.7339254334495653</v>
+      </c>
+      <c r="M2">
+        <v>-0.12507087355696514</v>
+      </c>
+      <c r="N2">
         <v>15.607610807449943</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>23.313893830332784</v>
+      </c>
+      <c r="Q2">
+        <v>-0.57472780600279449</v>
+      </c>
+      <c r="R2">
+        <v>-8.8770339292687108</v>
+      </c>
+      <c r="T2">
+        <v>26.00460327534234</v>
+      </c>
+      <c r="U2">
+        <v>-2.1210965491962814</v>
+      </c>
+      <c r="V2">
+        <v>15.936306070685987</v>
+      </c>
+      <c r="W2">
+        <v>-10.506996592400764</v>
+      </c>
+      <c r="X2">
+        <v>0.73465190586761608</v>
+      </c>
+      <c r="Y2">
+        <v>28.00645678959458</v>
+      </c>
+      <c r="Z2">
+        <v>14.387954323761562</v>
+      </c>
+      <c r="AA2">
+        <v>32.6681211325999</v>
+      </c>
+      <c r="AB2">
+        <v>23.938130103700772</v>
+      </c>
+      <c r="AC2">
+        <v>1.318943553425906</v>
+      </c>
+      <c r="AD2">
+        <v>39.208268887424936</v>
+      </c>
+      <c r="AE2">
+        <v>11.909130535205078</v>
+      </c>
+      <c r="AF2">
+        <v>17.759739746474967</v>
+      </c>
+      <c r="AG2">
+        <v>23.940950923427163</v>
+      </c>
+      <c r="AH2">
+        <v>22.262786893190725</v>
+      </c>
+      <c r="AI2">
+        <v>27.895067294099846</v>
+      </c>
+      <c r="AJ2">
+        <v>17.731791566406546</v>
+      </c>
+      <c r="AK2">
+        <v>25.199115302942744</v>
+      </c>
+      <c r="AL2">
+        <v>-4.720356160331348</v>
+      </c>
+      <c r="AM2">
         <v>21.379660433761398</v>
       </c>
-      <c r="F2">
-        <v>12.674789648369888</v>
-      </c>
-      <c r="G2">
-        <v>8.6332905048023196</v>
-      </c>
-      <c r="H2">
-        <v>10.649518704485013</v>
-      </c>
-      <c r="I2">
-        <v>22.414578827781657</v>
-      </c>
-      <c r="J2">
-        <v>21.861524470388506</v>
-      </c>
-      <c r="K2">
-        <v>6.9048331782436678</v>
-      </c>
-      <c r="L2">
-        <v>8.7339255067477932</v>
-      </c>
-      <c r="M2">
-        <v>-0.12507088302897273</v>
-      </c>
-      <c r="N2">
-        <v>15.607610845173825</v>
-      </c>
-      <c r="P2">
-        <v>23.313893835513131</v>
-      </c>
-      <c r="Q2">
-        <v>-0.57472777628784133</v>
-      </c>
-      <c r="R2">
-        <v>-8.8770338916355875</v>
-      </c>
-      <c r="T2">
-        <v>26.004603248513529</v>
-      </c>
-      <c r="U2">
-        <v>-2.1210965134510493</v>
-      </c>
-      <c r="V2">
-        <v>15.936306110528264</v>
-      </c>
-      <c r="W2">
-        <v>-10.50699652090548</v>
-      </c>
-      <c r="X2">
-        <v>0.73465194051990368</v>
-      </c>
-      <c r="Y2">
-        <v>28.006456837214849</v>
-      </c>
-      <c r="Z2">
-        <v>14.387954352153443</v>
-      </c>
-      <c r="AA2">
-        <v>32.668121369757195</v>
-      </c>
-      <c r="AB2">
-        <v>23.938130183453733</v>
-      </c>
-      <c r="AC2">
-        <v>1.3189436222473114</v>
-      </c>
-      <c r="AD2">
-        <v>39.208268987924413</v>
-      </c>
-      <c r="AE2">
-        <v>11.909130546710662</v>
-      </c>
-      <c r="AF2">
-        <v>17.759739802029948</v>
-      </c>
-      <c r="AG2">
-        <v>23.940951071479336</v>
-      </c>
-      <c r="AH2">
-        <v>22.262786942988026</v>
-      </c>
-      <c r="AI2">
-        <v>27.895067404458647</v>
-      </c>
-      <c r="AJ2">
-        <v>17.73179165101897</v>
-      </c>
-      <c r="AK2">
-        <v>25.199115349216285</v>
-      </c>
-      <c r="AL2">
-        <v>-4.7203561164764123</v>
-      </c>
-      <c r="AM2">
-        <v>21.379660491630645</v>
-      </c>
       <c r="AO2">
-        <v>36.785680531591403</v>
+        <v>36.78568040841796</v>
       </c>
       <c r="AP2">
-        <v>26.869869429670761</v>
+        <v>26.869869385598776</v>
       </c>
       <c r="AQ2">
-        <v>-6.2868299636720248</v>
+        <v>-6.2868300483710104</v>
       </c>
       <c r="AR2">
-        <v>30.536441729506876</v>
+        <v>30.536441711673152</v>
       </c>
       <c r="AS2">
-        <v>38.431965650892238</v>
+        <v>38.431965503726374</v>
       </c>
       <c r="AT2">
-        <v>10.508555892701457</v>
+        <v>10.508555849975066</v>
       </c>
       <c r="AU2">
-        <v>11.058666520236212</v>
+        <v>11.058666482804961</v>
       </c>
       <c r="AV2">
-        <v>18.028928107839288</v>
+        <v>18.028927900988016</v>
       </c>
       <c r="AW2">
-        <v>8.3385837710262543</v>
+        <v>8.3385837399212388</v>
       </c>
       <c r="AX2">
-        <v>28.773199602419048</v>
+        <v>28.773199539646722</v>
       </c>
       <c r="AY2">
-        <v>35.364102244358243</v>
+        <v>35.364102191721628</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>11.330235689933694</v>
+      </c>
+      <c r="C3">
+        <v>11.098031640037533</v>
+      </c>
+      <c r="D3">
+        <v>25.428526661132718</v>
+      </c>
+      <c r="E3">
+        <v>35.361647915286781</v>
+      </c>
+      <c r="F3">
+        <v>11.444583152543986</v>
+      </c>
+      <c r="G3">
+        <v>20.512524651249596</v>
+      </c>
+      <c r="H3">
+        <v>-5.8759773755041023</v>
+      </c>
+      <c r="I3">
+        <v>4.402180515172283</v>
+      </c>
+      <c r="J3">
+        <v>24.430892272061065</v>
+      </c>
+      <c r="K3">
+        <v>38.181409355023114</v>
+      </c>
+      <c r="L3">
+        <v>27.297134626669557</v>
+      </c>
+      <c r="M3">
+        <v>-6.0315461719926589</v>
+      </c>
+      <c r="N3">
         <v>12.126629948255992</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-12.284955612774002</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>21.400659357197235</v>
+      </c>
+      <c r="Q3">
+        <v>8.421546715335861</v>
+      </c>
+      <c r="R3">
+        <v>2.331077913522916</v>
+      </c>
+      <c r="S3">
+        <v>22.905714493946491</v>
+      </c>
+      <c r="T3">
+        <v>30.606626636231439</v>
+      </c>
+      <c r="U3">
+        <v>11.890998647634845</v>
+      </c>
+      <c r="V3">
+        <v>20.054120991980547</v>
+      </c>
+      <c r="W3">
+        <v>-1.6954659316395275</v>
+      </c>
+      <c r="X3">
+        <v>-5.9823147039946001</v>
+      </c>
+      <c r="Y3">
+        <v>31.890748685518183</v>
+      </c>
+      <c r="Z3">
+        <v>16.767997118417178</v>
+      </c>
+      <c r="AA3">
+        <v>33.031781031458912</v>
+      </c>
+      <c r="AB3">
+        <v>26.845698825967943</v>
+      </c>
+      <c r="AC3">
+        <v>35.957838663954142</v>
+      </c>
+      <c r="AD3">
+        <v>35.495870226372247</v>
+      </c>
+      <c r="AE3">
+        <v>28.749683655335623</v>
+      </c>
+      <c r="AF3">
+        <v>20.674660830919912</v>
+      </c>
+      <c r="AG3">
+        <v>13.4958392793567</v>
+      </c>
+      <c r="AH3">
+        <v>6.9745567470157459</v>
+      </c>
+      <c r="AI3">
+        <v>28.44154988402315</v>
+      </c>
+      <c r="AJ3">
+        <v>43.458537150001227</v>
+      </c>
+      <c r="AK3">
+        <v>25.94824423511734</v>
+      </c>
+      <c r="AL3">
+        <v>14.877225775406963</v>
+      </c>
+      <c r="AM3">
         <v>19.679804590674184</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-10.224154572232669</v>
       </c>
-      <c r="F3">
-        <v>11.444583220181432</v>
-      </c>
-      <c r="G3">
-        <v>20.512524684469867</v>
-      </c>
-      <c r="H3">
-        <v>-5.8759773475285844</v>
-      </c>
-      <c r="I3">
-        <v>4.4021805342698821</v>
-      </c>
-      <c r="J3">
-        <v>24.43089233884627</v>
-      </c>
-      <c r="K3">
-        <v>38.18140941390876</v>
-      </c>
-      <c r="L3">
-        <v>27.297134684315676</v>
-      </c>
-      <c r="M3">
-        <v>-6.0315763485639282</v>
-      </c>
-      <c r="N3">
-        <v>12.12662998005962</v>
-      </c>
-      <c r="O3">
-        <v>-12.28495553648607</v>
-      </c>
-      <c r="P3">
-        <v>21.400659409677786</v>
-      </c>
-      <c r="Q3">
-        <v>8.4215467578327257</v>
-      </c>
-      <c r="R3">
-        <v>2.3310779913279931</v>
-      </c>
-      <c r="S3">
-        <v>22.905714501781908</v>
-      </c>
-      <c r="T3">
-        <v>30.606626672042903</v>
-      </c>
-      <c r="U3">
-        <v>11.890998661214363</v>
-      </c>
-      <c r="V3">
-        <v>20.054121003860921</v>
-      </c>
-      <c r="W3">
-        <v>-1.6954658580508115</v>
-      </c>
-      <c r="X3">
-        <v>-5.982314673895968</v>
-      </c>
-      <c r="Y3">
-        <v>31.89074874236147</v>
-      </c>
-      <c r="Z3">
-        <v>16.76799714433967</v>
-      </c>
-      <c r="AA3">
-        <v>33.03178101943832</v>
-      </c>
-      <c r="AB3">
-        <v>26.845698897552516</v>
-      </c>
-      <c r="AC3">
-        <v>35.957838666968065</v>
-      </c>
-      <c r="AD3">
-        <v>35.495870328056121</v>
-      </c>
-      <c r="AE3">
-        <v>28.749683692338024</v>
-      </c>
-      <c r="AF3">
-        <v>20.674660890560578</v>
-      </c>
-      <c r="AG3">
-        <v>13.49583928704747</v>
-      </c>
-      <c r="AH3">
-        <v>6.9745568394008739</v>
-      </c>
-      <c r="AI3">
-        <v>28.441550011203471</v>
-      </c>
-      <c r="AJ3">
-        <v>43.45853721139737</v>
-      </c>
-      <c r="AK3">
-        <v>25.948244266968914</v>
-      </c>
-      <c r="AL3">
-        <v>14.877225813396262</v>
-      </c>
-      <c r="AM3">
-        <v>19.679804718905984</v>
-      </c>
-      <c r="AN3">
-        <v>-10.224154496088889</v>
-      </c>
       <c r="AO3">
-        <v>37.36542589673715</v>
+        <v>37.365425828743966</v>
       </c>
       <c r="AP3">
-        <v>4.8171684291858279</v>
+        <v>4.8171683556991116</v>
       </c>
       <c r="AQ3">
-        <v>21.125455102732424</v>
+        <v>21.125455078223855</v>
       </c>
       <c r="AR3">
-        <v>40.911831693394532</v>
+        <v>40.91183168267785</v>
       </c>
       <c r="AS3">
-        <v>31.112166544855125</v>
+        <v>31.112166402522973</v>
       </c>
       <c r="AT3">
-        <v>17.722141804931859</v>
+        <v>17.722141705489236</v>
       </c>
       <c r="AU3">
-        <v>16.995639894999577</v>
+        <v>16.995639891910379</v>
       </c>
       <c r="AV3">
-        <v>10.847090003954762</v>
+        <v>10.847089814207171</v>
       </c>
       <c r="AW3">
-        <v>8.584258345610456</v>
+        <v>8.5842582269639411</v>
       </c>
       <c r="AX3">
-        <v>17.746182442122763</v>
+        <v>17.74618234633563</v>
       </c>
       <c r="AY3">
-        <v>39.198632059305197</v>
+        <v>39.198632035041328</v>
       </c>
     </row>
   </sheetData>
